--- a/etc/file/netherland_stock_list.xlsx
+++ b/etc/file/netherland_stock_list.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="16416"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Symbol</t>
   </si>
   <si>
-    <t>Company Name</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -146,15 +146,74 @@
   </si>
   <si>
     <t>Wolters Kluwer</t>
+  </si>
+  <si>
+    <t>NameEn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>알버츠</t>
+  </si>
+  <si>
+    <t>아홀드 델하이즈</t>
+  </si>
+  <si>
+    <t>에이건</t>
+  </si>
+  <si>
+    <t>악조 노벨</t>
+  </si>
+  <si>
+    <t>ASML 홀딩</t>
+  </si>
+  <si>
+    <t>ASR 네덜란드</t>
+  </si>
+  <si>
+    <t>갈라파고스</t>
+  </si>
+  <si>
+    <t>하이네켄</t>
+  </si>
+  <si>
+    <t>ING 그룹</t>
+  </si>
+  <si>
+    <t>NN 그룹</t>
+  </si>
+  <si>
+    <t>필립스</t>
+  </si>
+  <si>
+    <t>란스타드</t>
+  </si>
+  <si>
+    <t>렐렉스</t>
+  </si>
+  <si>
+    <t>SBM 오프쇼어</t>
+  </si>
+  <si>
+    <t>유니베일-로담코-웨스트필드</t>
+  </si>
+  <si>
+    <t>유니레버</t>
+  </si>
+  <si>
+    <t>보팍</t>
+  </si>
+  <si>
+    <t>월터스 클루워</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -162,20 +221,23 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -277,61 +339,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -457,7 +559,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -466,7 +568,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -475,7 +577,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -549,7 +651,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -557,7 +659,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -576,7 +678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -606,7 +708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -632,7 +734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -658,7 +760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +786,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,7 +812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,7 +838,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -762,7 +864,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -788,7 +890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,7 +916,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,9 +929,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -844,7 +952,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -852,7 +960,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -871,7 +979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +1005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +1031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +1057,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1109,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,9 +1226,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1134,7 +1248,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1153,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +1323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,363 +1518,441 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.2188" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="B19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="B20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="B21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="B22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
